--- a/temp/alla_skolor.xlsx
+++ b/temp/alla_skolor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Skola</t>
   </si>
@@ -94,16 +94,245 @@
   </si>
   <si>
     <t>Ånestadsskolan</t>
+  </si>
+  <si>
+    <t>Bankekind</t>
+  </si>
+  <si>
+    <t>Björkö</t>
+  </si>
+  <si>
+    <t>Björnkärr</t>
+  </si>
+  <si>
+    <t>Blästad</t>
+  </si>
+  <si>
+    <t>Brokind</t>
+  </si>
+  <si>
+    <t>Brunnby</t>
+  </si>
+  <si>
+    <t>Bäck</t>
+  </si>
+  <si>
+    <t>Dar al Uloum</t>
+  </si>
+  <si>
+    <t>Ekdunge</t>
+  </si>
+  <si>
+    <t>Ekängen</t>
+  </si>
+  <si>
+    <t>Fredriksberg</t>
+  </si>
+  <si>
+    <t>Hagby</t>
+  </si>
+  <si>
+    <t>Himna</t>
+  </si>
+  <si>
+    <t>Hjulsbro</t>
+  </si>
+  <si>
+    <t>IS Atlas</t>
+  </si>
+  <si>
+    <t>Kungsberget</t>
+  </si>
+  <si>
+    <t>Kvinneby</t>
+  </si>
+  <si>
+    <t>Kärna</t>
+  </si>
+  <si>
+    <t>Lillgård</t>
+  </si>
+  <si>
+    <t>Ljungsbro</t>
+  </si>
+  <si>
+    <t>Nya Ryd</t>
+  </si>
+  <si>
+    <t>Nygård</t>
+  </si>
+  <si>
+    <t>Nykil</t>
+  </si>
+  <si>
+    <t>Rappestad</t>
+  </si>
+  <si>
+    <t>Rosendal</t>
+  </si>
+  <si>
+    <t>Skeda</t>
+  </si>
+  <si>
+    <t>Slaka</t>
+  </si>
+  <si>
+    <t>Slestad</t>
+  </si>
+  <si>
+    <t>Solhaga</t>
+  </si>
+  <si>
+    <t>Sätra</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Tannefors</t>
+  </si>
+  <si>
+    <t>Tokarp</t>
+  </si>
+  <si>
+    <t>Tornhagen</t>
+  </si>
+  <si>
+    <t>Trilobiten</t>
+  </si>
+  <si>
+    <t>Tunvalla</t>
+  </si>
+  <si>
+    <t>Vidingsjö</t>
+  </si>
+  <si>
+    <t>Vikingstad</t>
+  </si>
+  <si>
+    <t>Vist</t>
+  </si>
+  <si>
+    <t>Vreta kloster</t>
+  </si>
+  <si>
+    <t>Västerlösa</t>
+  </si>
+  <si>
+    <t>Ånestad</t>
+  </si>
+  <si>
+    <t>Änggård</t>
+  </si>
+  <si>
+    <t>Örtomta</t>
+  </si>
+  <si>
+    <t>Alternativa namn</t>
+  </si>
+  <si>
+    <t>Blästadsskolan</t>
+  </si>
+  <si>
+    <t>Brunnbyskolan</t>
+  </si>
+  <si>
+    <t>Bäckskolan</t>
+  </si>
+  <si>
+    <t>Ekängsskolan</t>
+  </si>
+  <si>
+    <t>Engelska Skolan</t>
+  </si>
+  <si>
+    <t>Fredrikgsbergsskolan</t>
+  </si>
+  <si>
+    <t>Hagbyskolan</t>
+  </si>
+  <si>
+    <t>Hjulsbroskolan</t>
+  </si>
+  <si>
+    <t>Kvinnebyskolan</t>
+  </si>
+  <si>
+    <t>Lillgårdskolan</t>
+  </si>
+  <si>
+    <t>Linghemsskolan</t>
+  </si>
+  <si>
+    <t>Ljungs skola</t>
+  </si>
+  <si>
+    <t>Nya Rydsskolan</t>
+  </si>
+  <si>
+    <t>Nykils skola</t>
+  </si>
+  <si>
+    <t>Rosendalsskolan</t>
+  </si>
+  <si>
+    <t>Skeda skola</t>
+  </si>
+  <si>
+    <t>Slaka skola</t>
+  </si>
+  <si>
+    <t>Slestadskolan</t>
+  </si>
+  <si>
+    <t>Sätra skola</t>
+  </si>
+  <si>
+    <t>T1-skolorna</t>
+  </si>
+  <si>
+    <t>Tallboda skola</t>
+  </si>
+  <si>
+    <t>Tanneforsskkolan</t>
+  </si>
+  <si>
+    <t>Vidingsjöskolan</t>
+  </si>
+  <si>
+    <t>Vikingstads skola</t>
+  </si>
+  <si>
+    <t>Vist skola</t>
+  </si>
+  <si>
+    <t>Änggårdsskolan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +355,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="31">
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,130 +751,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>24</v>
       </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A63">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/temp/alla_skolor.xlsx
+++ b/temp/alla_skolor.xlsx
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
